--- a/output/fit_clients/fit_round_35.xlsx
+++ b/output/fit_clients/fit_round_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8302880760.659431</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00332424118812302</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.560886756277916</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9308693481361124</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.560886756277916</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5909129855.790844</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004714979977312621</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9575749543661033</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.212608831678105</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.120288896329539</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.212608831678105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5148289803.562407</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003130459460733833</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.129206983457226</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9841694173967001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.129206983457226</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3466388807.054565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003291523397404804</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.036503681341766</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.803886254445465</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.036503681341766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6497418013.955394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002187980639051864</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9347714806363302</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.763270259227466</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.047303322567952</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.763270259227466</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8900150838.570782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001355498757121158</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.016545216403846</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.949341995274474</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.016545216403846</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6342965323.442442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002900144254804126</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.956149105626404</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9439564942238259</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.956149105626404</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5580903589.224969</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003885894821889743</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923063</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.040084755039236</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.159404717253384</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.040084755039236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4008554622.774568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004006275656290022</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.209171707699791</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9253763463018533</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.209171707699791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3955339702.979308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001370413370698036</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7863130153817921</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.733715353559084</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8246673546513763</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.733715353559084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6592292514.590667</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002130952092977857</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.139827523974046</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9944540857321754</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.139827523974046</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4150225602.990762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004031823474098975</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.031907078904507</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.006639818407417</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.031907078904507</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7547185502.120116</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003326609357077737</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.440064741712767</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8732333472868492</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.440064741712767</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6727580099.355708</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.00383446133916482</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2807911863297161</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.176348638580053</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.4365758594697024</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.176348638580053</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5947782609.0161</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003779910856775107</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9169152401306074</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.518200643188308</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.081705383931924</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.518200643188308</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6749786606.163868</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002493591997514707</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.966791211466385</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9450360496765257</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.966791211466385</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5822248972.438871</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001307926557465466</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.245415946424609</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9779444905989577</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.245415946424609</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3146338551.437603</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.00235878731410054</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.921855945250725</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8590694728168436</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.921855945250725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4633775277.800831</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001136162103348208</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.984750943187655</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8277000487488152</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.984750943187655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5126564632.429414</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004388032632855897</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.229381791753745</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8301080917952338</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.229381791753745</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4915664514.223996</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005333512398260388</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.27583489002059</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8791014223937976</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.27583489002059</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7334129861.554053</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001434384748869301</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.723889241759202</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8263887656200224</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.723889241759202</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8222870603.301007</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003707899969436222</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.556158834567348</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9716129397511233</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.556158834567348</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5022865379.860188</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003683090467066056</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.771210909749463</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9231934106196403</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.771210909749463</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4062121910.704118</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001275670477343563</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.895193483613159</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.800085564950952</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.895193483613159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7982550487.149687</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002574913642608399</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
         <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.087604579060875</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8962581588543664</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.087604579060875</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8854507492.345722</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005105769213273144</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.476002088269187</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8917201545483997</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.476002088269187</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5625763129.141902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001370402023050244</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.152788035833981</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9893141905507236</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.152788035833981</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5938319283.416678</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002631901307742251</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.108414418915688</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8697108970525838</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.108414418915688</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6484820434.018082</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002990560019158162</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.52249162281793</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9652958466120942</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.52249162281793</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3412271872.956319</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001403213374154881</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.997958859891791</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9385285740049674</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.997958859891791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6474801349.185322</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.00207773148423999</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.804954448960533</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8350457389537989</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.804954448960533</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5799787498.804292</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004785791650039216</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.319137758376772</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8153145921718401</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.319137758376772</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6955376162.175954</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002370899711887977</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.041482810147034</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.946114373312809</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.041482810147034</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7808027953.102895</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003521723610353765</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4070383986689911</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.445803934623581</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.7308150229039814</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.445803934623581</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6425411513.248837</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003830384295449576</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5849150045931137</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.236902427269066</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9041281141602585</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.236902427269066</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4115279551.946229</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003409843728941328</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7800818299055206</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.367377510976583</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9899276596587132</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.367377510976583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5805515198.760424</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002478774850043568</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.905369721886974</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8567428352549418</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.905369721886974</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7374935194.822317</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003786903421049255</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4949143078060797</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.639508098278564</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.808191538878946</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.639508098278564</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4474764290.111251</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001463991322574777</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9855007825580892</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.731860015694583</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.151208644767227</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.731860015694583</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5058008466.263603</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003950571787439124</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.945345278103775</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9985469530437332</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.945345278103775</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6207244755.175792</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004244484459506171</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.830519605287748</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9242972171398119</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.830519605287748</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7709254458.890897</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002236907941199992</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.183708759153788</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.91316360545423</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.183708759153788</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4746135662.598049</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001490761721053959</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.521079435666606</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9275774505111262</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.521079435666606</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7358022279.961778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005393175843195955</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.263391828761934</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8026438023206759</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.263391828761934</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>10005311901.01892</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002386270321745839</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.964718638645796</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9187766879754689</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.964718638645796</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6669379378.843684</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003004946320935521</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.220062937642278</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9727062495580648</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-5.220062937642278</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4217760442.628109</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003913328643050458</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.370386961761097</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8650086448403294</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.370386961761097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8357332506.593156</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002590534162282857</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.244924462281435</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.026761352299443</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.244924462281435</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5092476407.885441</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004012281741488362</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.306038957300411</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9417592395660994</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.306038957300411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6884128288.83489</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001610200053626767</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.38182607592809</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8399028855702591</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.38182607592809</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5348981395.501749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002364502155044423</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.2533188890556</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8939920361336673</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.2533188890556</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4103169281.376645</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00563577951690456</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.983572839984348</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8202226932101494</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.983572839984348</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6607987370.003673</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002677543110953274</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.44028507411247</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9064631115711321</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.44028507411247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5268497939.342794</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002512640093724762</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.746581828088766</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9131991149818498</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.746581828088766</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8201052461.996113</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00438315638893321</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8484874926717992</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.668364045084324</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.967126100392532</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.668364045084324</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4923009961.244188</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001836721683155988</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.640478181714707</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.763540473125051</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.640478181714707</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7010518515.630872</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00353487860189207</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.025879224118153</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8495338717661299</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.025879224118153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4561105781.499697</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002866625324890066</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.588947275649492</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8459638502635831</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.588947275649492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5260286944.093567</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004204688480862342</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.73541414773723</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9286644071667883</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.73541414773723</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5599165782.797688</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002988201035089495</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8419821230576083</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.819543240545467</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9850131275775129</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.819543240545467</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7844222525.071386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00393225454994405</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.200480260190092</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9041986565342321</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.200480260190092</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3479206769.780841</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003553468045193543</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.463133040238692</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9198975444728634</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.463133040238692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7699991962.575082</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005734502778507622</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.498151714184891</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.027732898791484</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.498151714184891</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6087656824.623144</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003039008647159433</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.274566319905014</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8790399433808587</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.274566319905014</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6196720599.540509</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004736474904873632</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.381308687964054</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9342190677014203</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.381308687964054</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8140407934.332864</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002622815398632468</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.577629390619485</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7582513132809563</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.577629390619485</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5028305238.284195</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008375943637367585</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.783747174421654</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9600111083947577</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.783747174421654</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6665044502.624298</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003176930000634845</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.988730943880006</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9265358834344296</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.988730943880006</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3451940809.027648</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002723904589859805</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7817893530109987</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4.000666863194644</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8919161099047271</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-4.000666863194644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7377873293.703309</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001769819054494515</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4860738152036153</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.707780979494936</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.8753419875605614</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.707780979494936</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6602167365.028613</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001086067426917612</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.485054573734101</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9758348460537734</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.485054573734101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4795892909.356997</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003821762364383271</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.9200759424816315</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.174422457904938</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.037211228370423</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.174422457904938</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5160384715.314579</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003497329528574596</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.146661614040096</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8313355016266303</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.146661614040096</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5702854573.844668</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002187171341154765</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.32749498447667</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9120581757127377</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.32749498447667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5266049297.549301</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.0058762554248037</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.211648515803101</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.008727899366326</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.211648515803101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5107471070.81534</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004631589460254071</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.485860008432405</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9143031652823672</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.485860008432405</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8505758962.078285</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001948039250857003</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.426830002531768</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9695452612268967</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.426830002531768</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5768272965.324409</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003216658008383793</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.746421517918533</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9726617998527014</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.746421517918533</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6585944367.782432</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003576018418761537</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.098213171708987</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9924231052056242</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.098213171708987</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5448725904.239652</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00493932758995244</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.251147965938916</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9579183875033629</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.251147965938916</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7464540449.008784</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003470221582630852</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>14</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.93470082882921</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.422755994647499</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9558577308516593</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.422755994647499</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4887861305.353608</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00499119457549066</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.036806897966496</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9286644071667883</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.036806897966496</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4455309653.039879</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003034916850802752</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.004152215922115</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.50709255283711</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.004152215922115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6357311070.792808</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001818231275750615</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
         <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.327180284594487</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9557193030175541</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.327180284594487</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5157261617.711791</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001295991901799431</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>10</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3271733962924852</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.90082894936354</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.5480266750451431</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.90082894936354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6769024506.725623</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003880555558379955</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.996946196410116</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.800085564950952</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.996946196410116</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7494596689.350656</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003475493219602377</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.05096170120132399</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.16907817113956</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.4187798783666605</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.16907817113956</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5140145323.140538</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003354031574599405</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.992998644639072</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.8985305958701528</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.992998644639072</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7015767619.110599</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003814425248109529</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.160504444026755</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8639041555650466</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.160504444026755</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4123610906.436428</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003195126726330252</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.522803315898589</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.024731115531</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.522803315898589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5618443970.313365</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001417571692878654</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.466477799744568</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.920970092484341</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.466477799744568</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7263958890.72111</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001079982083272693</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.345979300471879</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.052274474439882</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.345979300471879</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>4934644866.470974</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002118535477295125</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.981567770767966</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9276124082687692</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.981567770767966</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7907310442.471822</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002719184668648653</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.839427225682172</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8790030539091195</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.839427225682172</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7778781097.546375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004016610404354301</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.188687440495871</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9098551669140308</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.188687440495871</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5697042025.305058</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003159338030559413</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.527565479932718</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.865033635858637</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.527565479932718</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2393857767.265483</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005521149331580341</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.28689899132466</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8905638349202095</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.28689899132466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5654520525.899595</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002273903941970109</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.170076331736777</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7898381805123285</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.170076331736777</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5385096844.326003</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00131925102830525</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6660030426562507</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.733887023533539</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8894303174650999</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.733887023533539</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_35.xlsx
+++ b/output/fit_clients/fit_round_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8302880760.659431</v>
+        <v>1599967321.678815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00332424118812302</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.1067520375333244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03028547301807025</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>799983602.4711571</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1678721731.344557</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1700830278047012</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04229192235922148</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5909129855.790844</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004714979977312621</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="J3" t="n">
+        <v>839360855.7899746</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5148289803.562407</v>
+        <v>5207110605.807143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003130459460733833</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>0.1029181301726752</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03034203383425555</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2603555402.406842</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3466388807.054565</v>
+        <v>4017701556.26331</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003291523397404804</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1026809002281286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04918488050374163</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2008850780.495154</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6497418013.955394</v>
+        <v>2232969706.847806</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002187980639051864</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.09748151175198709</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05121913803550054</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1116484857.640419</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8900150838.570782</v>
+        <v>2498089011.597531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001355498757121158</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
+        <v>0.06264347697728963</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04511358256771628</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1249044518.841267</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6342965323.442442</v>
+        <v>3123282456.58226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002900144254804126</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.2058397351888268</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0330824139319096</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1561641298.231535</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5580903589.224969</v>
+        <v>2072400537.016882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003885894821889743</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11</v>
+        <v>0.1803288428250614</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02418442392653153</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1036200284.883439</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4008554622.774568</v>
+        <v>4276143571.125718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004006275656290022</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2121423430091588</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04409971830170362</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2138071828.653328</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3955339702.979308</v>
+        <v>4052616947.832424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001370413370698036</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1531439105593974</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04035088974136314</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2026308490.110218</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3232372605.84119</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1710324522662324</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04720066486145527</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>537</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6592292514.590667</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.002130952092977857</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1616186342.02815</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4150225602.990762</v>
+        <v>3773070919.960882</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004031823474098975</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.09831303268694717</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02136590235650564</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1886535526.257427</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7547185502.120116</v>
+        <v>3185064121.330872</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003326609357077737</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+        <v>0.1552773397449776</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0360619134137836</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1592532081.533276</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6727580099.355708</v>
+        <v>1747440567.256948</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00383446133916482</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11</v>
+        <v>0.08574861808769756</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04926648863170269</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>873720425.05004</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5947782609.0161</v>
+        <v>2407319958.568937</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003779910856775107</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11</v>
+        <v>0.09257781777929408</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03726218596287019</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1203660018.222883</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6749786606.163868</v>
+        <v>5229647200.201677</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002493591997514707</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+        <v>0.146668631691367</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05204384030217243</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2614823573.748404</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5822248972.438871</v>
+        <v>2597455805.501913</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001307926557465466</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.1499506793655842</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02623401442678476</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>9</v>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1298727961.994213</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3146338551.437603</v>
+        <v>1122282725.568317</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00235878731410054</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1468816780495034</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02031537399688475</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>561141421.64055</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4633775277.800831</v>
+        <v>1749502467.399584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001136162103348208</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1506161226941268</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03131201898870596</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>874751286.5551895</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5126564632.429414</v>
+        <v>2210727064.019016</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004388032632855897</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+        <v>0.09465713390621473</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04102551056511754</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1105363547.650107</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4915664514.223996</v>
+        <v>2972059347.195015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005333512398260388</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.1023826511731526</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05571883936837432</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1486029736.626551</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7334129861.554053</v>
+        <v>1186184740.557814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001434384748869301</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>0.1255298922539462</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04482065559676419</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>593092408.9151641</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8222870603.301007</v>
+        <v>3647158414.922109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003707899969436222</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.1241990890361934</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0291685436302242</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1823579198.995953</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5022865379.860188</v>
+        <v>911606607.2679696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003683090467066056</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
+        <v>0.1099832033877474</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02748703536282207</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>455803387.794406</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4062121910.704118</v>
+        <v>1439092088.572514</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001275670477343563</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08094703218198314</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03348128325064881</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>719546123.7018981</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7982550487.149687</v>
+        <v>3848673162.103699</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002574913642608399</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
+        <v>0.1068934560347259</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02606513634187845</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1924336598.542107</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8854507492.345722</v>
+        <v>3762986294.611757</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005105769213273144</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
+        <v>0.1177860727685403</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04036441858381205</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1881493224.544446</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5625763129.141902</v>
+        <v>4641040642.076225</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001370402023050244</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
+        <v>0.141818430870766</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02938589175492661</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2320520293.253586</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5938319283.416678</v>
+        <v>2036990736.253142</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002631901307742251</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11</v>
+        <v>0.08772919745305993</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03432302393674913</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1018495409.659104</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6484820434.018082</v>
+        <v>1245935480.364017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002990560019158162</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.1051720012681507</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03811408481267944</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>622967680.659417</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3412271872.956319</v>
+        <v>1789812517.542552</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001403213374154881</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07889116296009385</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03876808859841778</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>894906386.9801048</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6474801349.185322</v>
+        <v>2343643979.502426</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00207773148423999</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
+        <v>0.1574468046122782</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05094710114183595</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1171822041.088425</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5799787498.804292</v>
+        <v>1207283060.64438</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004785791650039216</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>11</v>
+        <v>0.07756585016268062</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02317238160349444</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>603641534.0152682</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6955376162.175954</v>
+        <v>921412046.3264049</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002370899711887977</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
+        <v>0.1034084190092961</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04230081877286918</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>460706058.8085141</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7808027953.102895</v>
+        <v>3210454361.443948</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003521723610353765</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
+        <v>0.1449389474732467</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0224848819400649</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1605227145.587869</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6425411513.248837</v>
+        <v>2737402523.808978</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003830384295449576</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.08912018981183265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03823077680025769</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
-        <v>9</v>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1368701390.444381</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4115279551.946229</v>
+        <v>2143556255.049687</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003409843728941328</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08685042496278414</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03765607026479959</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1071778085.708606</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5805515198.760424</v>
+        <v>1744638555.664415</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002478774850043568</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>0.1898799777313161</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03307362616503294</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>872319310.9552976</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7374935194.822317</v>
+        <v>1331352375.808152</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003786903421049255</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.1234339756176069</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0545569478838034</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>665676196.1220914</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4474764290.111251</v>
+        <v>2310755923.843119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001463991322574777</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1428749015754174</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03731296262009552</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1155378005.57672</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5058008466.263603</v>
+        <v>3654970315.20186</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003950571787439124</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
+        <v>0.1235965779134653</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04273838248451384</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1827485162.948014</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6207244755.175792</v>
+        <v>2945324256.24167</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004244484459506171</v>
-      </c>
-      <c r="G43" t="b">
+        <v>0.1721334818021194</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02263396035544944</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="n">
-        <v>7</v>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1472662131.854854</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7709254458.890897</v>
+        <v>1600021989.776265</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002236907941199992</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
+        <v>0.09279879870046429</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03562399460718686</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>800011021.2522078</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4746135662.598049</v>
+        <v>1814070874.888916</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001490761721053959</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1627333101044352</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04244848373988983</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>907035409.3942575</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4163218891.362076</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1441276482637927</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06142901148129986</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7358022279.961778</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.005393175843195955</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2081609424.384342</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>10005311901.01892</v>
+        <v>5155170265.721582</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002386270321745839</v>
-      </c>
-      <c r="G47" t="b">
+        <v>0.1897890455616145</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03643170827189121</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="H47" t="n">
-        <v>4</v>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2577585197.306296</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6669379378.843684</v>
+        <v>4465586046.769562</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003004946320935521</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.0764919573229307</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03130248922506909</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2232793030.544748</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4217760442.628109</v>
+        <v>1965937568.403878</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003913328643050458</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1927945619849666</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04405929080718067</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>982968743.5416412</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8357332506.593156</v>
+        <v>2677067999.981913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002590534162282857</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.1584850152428205</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03277203991353209</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1338534082.647617</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5092476407.885441</v>
+        <v>1111121098.821193</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004012281741488362</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1460889175635982</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05024255383606063</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>555560615.1565595</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6884128288.83489</v>
+        <v>4060804294.081747</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001610200053626767</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
+        <v>0.1169409802798065</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05756229244760847</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2030402199.775103</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5348981395.501749</v>
+        <v>3121181687.71131</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002364502155044423</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
+        <v>0.1503179568733564</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03061793075520709</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1560590867.760822</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4103169281.376645</v>
+        <v>4479058419.414387</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00563577951690456</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
+        <v>0.1638251575045447</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03235106865882122</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2239529311.189683</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6607987370.003673</v>
+        <v>4275988059.536463</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002677543110953274</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>11</v>
+        <v>0.1533998635953564</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02593324538817485</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2137994016.691825</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5268497939.342794</v>
+        <v>1178561473.439967</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002512640093724762</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1620580125031791</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05508794834434248</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>589280826.3141203</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8201052461.996113</v>
+        <v>4389835101.444177</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00438315638893321</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
+        <v>0.1113096731663974</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02465600834234341</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2194917671.648261</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4923009961.244188</v>
+        <v>1579343808.667767</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001836721683155988</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1365223624744629</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.030110342400514</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>789671928.0549529</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7010518515.630872</v>
+        <v>5040742257.885944</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00353487860189207</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1222947060280589</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0320445052699673</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2520371054.534084</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4561105781.499697</v>
+        <v>3447590267.784748</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002866625324890066</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1557593137169682</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02428410891748045</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1723795250.979171</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5260286944.093567</v>
+        <v>2110499247.738713</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004204688480862342</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
+        <v>0.1585799745095872</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02729057941934736</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1055249688.037119</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5599165782.797688</v>
+        <v>1746477697.136879</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002988201035089495</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
+        <v>0.1582916078808005</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03935863004179018</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>873238868.4524777</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7844222525.071386</v>
+        <v>4327006688.139077</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00393225454994405</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
+        <v>0.07838991235317049</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04550776211161464</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2163503391.696393</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3479206769.780841</v>
+        <v>3866579412.127967</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003553468045193543</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1745581916337227</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03545887730074059</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1933289732.358469</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7699991962.575082</v>
+        <v>5271458980.70778</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005734502778507622</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
+        <v>0.1734815070655431</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02108638894215115</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2635729432.896904</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6087656824.623144</v>
+        <v>4812940363.005273</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003039008647159433</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.1523600478175303</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04676997267279142</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2406470198.468583</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6196720599.540509</v>
+        <v>2424980001.03023</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004736474904873632</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09730719247762679</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03930231283398653</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1212490067.245834</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8140407934.332864</v>
+        <v>6005058364.661892</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002622815398632468</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
+        <v>0.1062746068976561</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04394933262182563</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3002529299.42483</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5028305238.284195</v>
+        <v>1512062323.938061</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008375943637367585</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1309431098336502</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05806351807831236</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>756031103.6051054</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6665044502.624298</v>
+        <v>3275982900.170663</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003176930000634845</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
+        <v>0.0677136710155259</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03190248405433992</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1637991444.831899</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3451940809.027648</v>
+        <v>4384414201.579131</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002723904589859805</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1763199979748571</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02258984784858278</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2192207160.360077</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7377873293.703309</v>
+        <v>1967853885.591257</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001769819054494515</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
+        <v>0.08892950308035627</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03852950524271277</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>983926894.1168376</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6602167365.028613</v>
+        <v>3072082713.976258</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001086067426917612</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
+        <v>0.1011263385360944</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03790258221210394</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1536041346.204513</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4795892909.356997</v>
+        <v>3076548508.230669</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003821762364383271</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1831003433370025</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0268876846211881</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1538274312.712571</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5160384715.314579</v>
+        <v>1970394038.205193</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003497329528574596</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
+        <v>0.1583693001339536</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03664711638794436</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>985196985.8475606</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5702854573.844668</v>
+        <v>4085603458.560915</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002187171341154765</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1078379826818939</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02252737383113238</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2042801717.431924</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5266049297.549301</v>
+        <v>1964989432.130919</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0058762554248037</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1683542111922808</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02106880162564754</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>982494772.2576288</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5107471070.81534</v>
+        <v>3794760489.441339</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004631589460254071</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.1152762426092346</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05469791408539405</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1897380224.972072</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8505758962.078285</v>
+        <v>1277967304.99674</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001948039250857003</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.1121261366417965</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03788182528680081</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>638983647.7004848</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5768272965.324409</v>
+        <v>3421104004.066936</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003216658008383793</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.07378455716724459</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0243490121673996</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1710551972.564589</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6585944367.782432</v>
+        <v>4524972788.536353</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003576018418761537</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.08472804381816552</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02173765300040054</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2262486376.823717</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4367109189.203294</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1488831177724758</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02010437979551736</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>5448725904.239652</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.00493932758995244</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+      <c r="I82" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2183554613.715475</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7464540449.008784</v>
+        <v>1707767595.226261</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003470221582630852</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>9</v>
+        <v>0.1579012765271035</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03991681253987345</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>853883746.4198017</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4887861305.353608</v>
+        <v>1734327430.949748</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00499119457549066</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
+        <v>0.08501405719368141</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05153689041787155</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>867163759.203455</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4455309653.039879</v>
+        <v>2661102038.621398</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003034916850802752</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1195177308700808</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04897372749506581</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1330551041.872889</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6357311070.792808</v>
+        <v>2194946536.450578</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001818231275750615</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.159991277581279</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02123910276298245</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1097473322.797368</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5157261617.711791</v>
+        <v>1454843614.878439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001295991901799431</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1207836608975328</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02818767677422374</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>727421928.1684999</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6769024506.725623</v>
+        <v>3135985871.198068</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003880555558379955</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.1094876625687018</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03250704589628253</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1567992979.302183</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2683512109.505236</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1024563525554744</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02836332215952907</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7494596689.350656</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.003475493219602377</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8</v>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1341756115.874524</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5140145323.140538</v>
+        <v>2048827833.705939</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003354031574599405</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
+        <v>0.1304854939815993</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05181407658132421</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1024413995.870865</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7015767619.110599</v>
+        <v>1609697339.305048</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003814425248109529</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>10</v>
+        <v>0.1197853625467942</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04407195534629119</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>804848693.7663991</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4123610906.436428</v>
+        <v>2182778804.759004</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003195126726330252</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07831809984670857</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0476715668418889</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1091389362.1696</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5618443970.313365</v>
+        <v>4919588601.404881</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001417571692878654</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>12</v>
+        <v>0.1036939678524711</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05318239655340032</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2459794241.679287</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7263958890.72111</v>
+        <v>1878423202.619991</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001079982083272693</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>12</v>
+        <v>0.1340203615341896</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03363566090151206</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>939211583.6301843</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>4934644866.470974</v>
+        <v>2013071732.99988</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002118535477295125</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>9</v>
+        <v>0.1319017809719762</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0518241982693311</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1006535937.798496</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7907310442.471822</v>
+        <v>1934625725.771078</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002719184668648653</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>9</v>
+        <v>0.1144602361027178</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04288674336955648</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>967312856.6698778</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7778781097.546375</v>
+        <v>3346019299.963684</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004016610404354301</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>9</v>
+        <v>0.1128153094196009</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01828647685607459</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1673009653.609521</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5697042025.305058</v>
+        <v>2554899653.827075</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003159338030559413</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>13</v>
+        <v>0.08558214276383777</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02269426629775117</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1277449781.217335</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2393857767.265483</v>
+        <v>2484026021.956734</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005521149331580341</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1308241481578652</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02815916896039133</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1242012959.284426</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5654520525.899595</v>
+        <v>4162334849.844722</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002273903941970109</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1701392767154889</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01900443258404468</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2081167508.374917</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5385096844.326003</v>
+        <v>2539382094.521185</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00131925102830525</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>11</v>
+        <v>0.1944846097684244</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04493158029837439</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1269691075.252723</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_35.xlsx
+++ b/output/fit_clients/fit_round_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1599967321.678815</v>
+        <v>2501965554.65248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1067520375333244</v>
+        <v>0.07257444227781881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03028547301807025</v>
+        <v>0.03355656003415499</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>799983602.4711571</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1678721731.344557</v>
+        <v>2193404896.420309</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1700830278047012</v>
+        <v>0.1741564460827169</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04229192235922148</v>
+        <v>0.03142526379216064</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>839360855.7899746</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5207110605.807143</v>
+        <v>5053029451.218596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1029181301726752</v>
+        <v>0.1142887433734846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03034203383425555</v>
+        <v>0.02955828647468875</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2603555402.406842</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4017701556.26331</v>
+        <v>4115381242.607564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1026809002281286</v>
+        <v>0.08215173171419875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04918488050374163</v>
+        <v>0.04661992446393353</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2008850780.495154</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2232969706.847806</v>
+        <v>2737751064.002838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09748151175198709</v>
+        <v>0.0897894335905231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05121913803550054</v>
+        <v>0.04922630514507195</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1116484857.640419</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2498089011.597531</v>
+        <v>2113098104.951689</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06264347697728963</v>
+        <v>0.06417466331743861</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04511358256771628</v>
+        <v>0.04351578112184375</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1249044518.841267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3123282456.58226</v>
+        <v>2487120510.502723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2058397351888268</v>
+        <v>0.2094505882512914</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0330824139319096</v>
+        <v>0.03348553618115363</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1561641298.231535</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2072400537.016882</v>
+        <v>1695460911.282635</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1803288428250614</v>
+        <v>0.1727049679668065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02418442392653153</v>
+        <v>0.02395126314501449</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1036200284.883439</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4276143571.125718</v>
+        <v>4414748099.675088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2121423430091588</v>
+        <v>0.1445481201888944</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04409971830170362</v>
+        <v>0.03298925701026169</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2138071828.653328</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4052616947.832424</v>
+        <v>2687617568.619785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1531439105593974</v>
+        <v>0.1198890510335456</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04035088974136314</v>
+        <v>0.03334008171493171</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2026308490.110218</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3232372605.84119</v>
+        <v>3056011171.401</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1710324522662324</v>
+        <v>0.1567478190127962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04720066486145527</v>
+        <v>0.03551684686858108</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1616186342.02815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3773070919.960882</v>
+        <v>4373186897.733974</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09831303268694717</v>
+        <v>0.07655101133494058</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02136590235650564</v>
+        <v>0.02831149120938322</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1886535526.257427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3185064121.330872</v>
+        <v>3763053617.80605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1552773397449776</v>
+        <v>0.1625211726330513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0360619134137836</v>
+        <v>0.04262369100400699</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1592532081.533276</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1747440567.256948</v>
+        <v>1422624848.621006</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08574861808769756</v>
+        <v>0.0905797807399524</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04926648863170269</v>
+        <v>0.0376497665879446</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873720425.05004</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2407319958.568937</v>
+        <v>2008376637.626223</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09257781777929408</v>
+        <v>0.1134227077774499</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03726218596287019</v>
+        <v>0.03415851940523574</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1203660018.222883</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5229647200.201677</v>
+        <v>4362002766.537613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.146668631691367</v>
+        <v>0.1122897280143633</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05204384030217243</v>
+        <v>0.035100822219736</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2614823573.748404</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2597455805.501913</v>
+        <v>3778983590.927124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1499506793655842</v>
+        <v>0.1425464686662401</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02623401442678476</v>
+        <v>0.02230510744305873</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1298727961.994213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1122282725.568317</v>
+        <v>1363952209.029415</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1468816780495034</v>
+        <v>0.1715677775046623</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02031537399688475</v>
+        <v>0.02381018865364521</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>561141421.64055</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1749502467.399584</v>
+        <v>2431623706.481806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1506161226941268</v>
+        <v>0.1427547585827737</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03131201898870596</v>
+        <v>0.02327023246999717</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>874751286.5551895</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2210727064.019016</v>
+        <v>2312713118.574028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09465713390621473</v>
+        <v>0.08575270297807096</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04102551056511754</v>
+        <v>0.04384579375992876</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1105363547.650107</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2972059347.195015</v>
+        <v>2935438275.570202</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1023826511731526</v>
+        <v>0.1322836693191006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05571883936837432</v>
+        <v>0.04827326780817654</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1486029736.626551</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1186184740.557814</v>
+        <v>1506067488.437507</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1255298922539462</v>
+        <v>0.1803448347814245</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04482065559676419</v>
+        <v>0.05263562960790363</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>593092408.9151641</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3647158414.922109</v>
+        <v>3166742289.154762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1241990890361934</v>
+        <v>0.1156127717578312</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0291685436302242</v>
+        <v>0.03095842405091897</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1823579198.995953</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>911606607.2679696</v>
+        <v>1393469202.749696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1099832033877474</v>
+        <v>0.09815902986699825</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02748703536282207</v>
+        <v>0.02926116634333811</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>455803387.794406</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1439092088.572514</v>
+        <v>1136297255.982335</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08094703218198314</v>
+        <v>0.07953960527073002</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03348128325064881</v>
+        <v>0.02974038860295115</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>719546123.7018981</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3848673162.103699</v>
+        <v>3470475115.507605</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1068934560347259</v>
+        <v>0.1461926112444459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02606513634187845</v>
+        <v>0.01687503308892676</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1924336598.542107</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3762986294.611757</v>
+        <v>3039332369.340283</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1177860727685403</v>
+        <v>0.1315684838884462</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04036441858381205</v>
+        <v>0.04608418563466286</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1881493224.544446</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4641040642.076225</v>
+        <v>4850810976.655294</v>
       </c>
       <c r="F29" t="n">
-        <v>0.141818430870766</v>
+        <v>0.09535304602983709</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02938589175492661</v>
+        <v>0.03762154003352079</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2320520293.253586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2036990736.253142</v>
+        <v>2069028781.875391</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08772919745305993</v>
+        <v>0.122340825059821</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03432302393674913</v>
+        <v>0.03631737482076791</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1018495409.659104</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1245935480.364017</v>
+        <v>1093512658.484034</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1051720012681507</v>
+        <v>0.07285450245884598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03811408481267944</v>
+        <v>0.0497967957515831</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>622967680.659417</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1789812517.542552</v>
+        <v>1603321727.600979</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07889116296009385</v>
+        <v>0.07881440377288791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03876808859841778</v>
+        <v>0.03223231647739004</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>894906386.9801048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2343643979.502426</v>
+        <v>2411654684.59271</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1574468046122782</v>
+        <v>0.1847969029946241</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05094710114183595</v>
+        <v>0.04860327819823414</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1171822041.088425</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1207283060.64438</v>
+        <v>1037867768.442598</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07756585016268062</v>
+        <v>0.1029196579848682</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02317238160349444</v>
+        <v>0.01868157364456896</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>603641534.0152682</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>921412046.3264049</v>
+        <v>961939074.021091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1034084190092961</v>
+        <v>0.1181542989409389</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04230081877286918</v>
+        <v>0.04515004039646833</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>460706058.8085141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3210454361.443948</v>
+        <v>2243728276.338048</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1449389474732467</v>
+        <v>0.1517989529242159</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0224848819400649</v>
+        <v>0.02159387863675434</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1605227145.587869</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2737402523.808978</v>
+        <v>1954576667.953201</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08912018981183265</v>
+        <v>0.07445540980354422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03823077680025769</v>
+        <v>0.02733282078901205</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1368701390.444381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2143556255.049687</v>
+        <v>1590779024.856094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08685042496278414</v>
+        <v>0.09677384163360993</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03765607026479959</v>
+        <v>0.03714862283633957</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1071778085.708606</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1744638555.664415</v>
+        <v>1559126570.708797</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1898799777313161</v>
+        <v>0.1687002678721503</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03307362616503294</v>
+        <v>0.02111908753913569</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>872319310.9552976</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1331352375.808152</v>
+        <v>1552707002.480814</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1234339756176069</v>
+        <v>0.1338031752210317</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0545569478838034</v>
+        <v>0.05453592566719655</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>665676196.1220914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2310755923.843119</v>
+        <v>2470480424.300405</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1428749015754174</v>
+        <v>0.1317251521333995</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03731296262009552</v>
+        <v>0.04714815281286697</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1155378005.57672</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3654970315.20186</v>
+        <v>3963927775.294077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1235965779134653</v>
+        <v>0.1176778394233972</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04273838248451384</v>
+        <v>0.03192966247853136</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1827485162.948014</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2945324256.24167</v>
+        <v>2821304466.439358</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1721334818021194</v>
+        <v>0.1590596551403948</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02263396035544944</v>
+        <v>0.02026735713312072</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1472662131.854854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1600021989.776265</v>
+        <v>2169869744.110737</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09279879870046429</v>
+        <v>0.0652267616478107</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03562399460718686</v>
+        <v>0.03185944368249292</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>800011021.2522078</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1814070874.888916</v>
+        <v>2145636386.20115</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1627333101044352</v>
+        <v>0.1831043812104046</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04244848373988983</v>
+        <v>0.04591088579441754</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>907035409.3942575</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4163218891.362076</v>
+        <v>4741636858.305813</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1441276482637927</v>
+        <v>0.1150622625549051</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06142901148129986</v>
+        <v>0.03920736148873805</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2081609424.384342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5155170265.721582</v>
+        <v>5039772320.793857</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1897890455616145</v>
+        <v>0.128504669203318</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03643170827189121</v>
+        <v>0.04630606766909062</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2577585197.306296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4465586046.769562</v>
+        <v>4476800172.995454</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0764919573229307</v>
+        <v>0.08455015072116552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03130248922506909</v>
+        <v>0.03921490410354208</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2232793030.544748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1965937568.403878</v>
+        <v>1630284387.396842</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1927945619849666</v>
+        <v>0.1262247731068022</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04405929080718067</v>
+        <v>0.03071383406361836</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>982968743.5416412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2677067999.981913</v>
+        <v>3192949461.45693</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1584850152428205</v>
+        <v>0.1635367356089039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03277203991353209</v>
+        <v>0.04829926135993066</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1338534082.647617</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1111121098.821193</v>
+        <v>958577989.9538409</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1460889175635982</v>
+        <v>0.1398179805264786</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05024255383606063</v>
+        <v>0.0365856498255048</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>555560615.1565595</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4060804294.081747</v>
+        <v>4947967895.438267</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1169409802798065</v>
+        <v>0.1011150759522487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05756229244760847</v>
+        <v>0.06208376058223863</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2030402199.775103</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3121181687.71131</v>
+        <v>3503417019.456067</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1503179568733564</v>
+        <v>0.1298699789671348</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03061793075520709</v>
+        <v>0.03189475102023137</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1560590867.760822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4479058419.414387</v>
+        <v>3264459880.601957</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1638251575045447</v>
+        <v>0.1452852879405315</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03235106865882122</v>
+        <v>0.03289003919435921</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2239529311.189683</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4275988059.536463</v>
+        <v>3946245197.409173</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1533998635953564</v>
+        <v>0.1656853455637603</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02593324538817485</v>
+        <v>0.02834353287147194</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2137994016.691825</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1178561473.439967</v>
+        <v>1773663493.156872</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1620580125031791</v>
+        <v>0.1570703771277463</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05508794834434248</v>
+        <v>0.05534541095749902</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>589280826.3141203</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4389835101.444177</v>
+        <v>4106202666.35871</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1113096731663974</v>
+        <v>0.1748806590313677</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02465600834234341</v>
+        <v>0.01712986435454263</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2194917671.648261</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1579343808.667767</v>
+        <v>1382095029.872675</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1365223624744629</v>
+        <v>0.1856390551053261</v>
       </c>
       <c r="G58" t="n">
-        <v>0.030110342400514</v>
+        <v>0.03135390825747477</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>789671928.0549529</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5040742257.885944</v>
+        <v>3995267204.341471</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1222947060280589</v>
+        <v>0.09442612066018756</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0320445052699673</v>
+        <v>0.04471780857586555</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2520371054.534084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3447590267.784748</v>
+        <v>2967666820.609742</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1557593137169682</v>
+        <v>0.1313042646963936</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02428410891748045</v>
+        <v>0.02053291633992741</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1723795250.979171</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2110499247.738713</v>
+        <v>2838643747.816402</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1585799745095872</v>
+        <v>0.1776782314668454</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02729057941934736</v>
+        <v>0.02918997252444219</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1055249688.037119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1746477697.136879</v>
+        <v>1924214602.321908</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1582916078808005</v>
+        <v>0.156159986424269</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03935863004179018</v>
+        <v>0.04262786235497636</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>873238868.4524777</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4327006688.139077</v>
+        <v>3719055221.151275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07838991235317049</v>
+        <v>0.06685856000266056</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04550776211161464</v>
+        <v>0.04168295383265357</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2163503391.696393</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3866579412.127967</v>
+        <v>3948373972.679663</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1745581916337227</v>
+        <v>0.136035920290975</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03545887730074059</v>
+        <v>0.02151545893799958</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1933289732.358469</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5271458980.70778</v>
+        <v>5201606017.335862</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1734815070655431</v>
+        <v>0.1306918657646282</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02108638894215115</v>
+        <v>0.02968969662962948</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2635729432.896904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4812940363.005273</v>
+        <v>5103005525.910784</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1523600478175303</v>
+        <v>0.1290941466983423</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04676997267279142</v>
+        <v>0.04455037550163776</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2406470198.468583</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2424980001.03023</v>
+        <v>2312780152.459053</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09730719247762679</v>
+        <v>0.0810320534885649</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03930231283398653</v>
+        <v>0.03549549044760562</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1212490067.245834</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6005058364.661892</v>
+        <v>5226345394.052594</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1062746068976561</v>
+        <v>0.131047436692192</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04394933262182563</v>
+        <v>0.04548240425833549</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3002529299.42483</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1512062323.938061</v>
+        <v>2136653920.777722</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1309431098336502</v>
+        <v>0.1571245276000494</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05806351807831236</v>
+        <v>0.05682444296190112</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>756031103.6051054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3275982900.170663</v>
+        <v>2448914415.765228</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0677136710155259</v>
+        <v>0.08358069288018173</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03190248405433992</v>
+        <v>0.03061929879971914</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1637991444.831899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4384414201.579131</v>
+        <v>3399661565.889299</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1763199979748571</v>
+        <v>0.1607964170033662</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02258984784858278</v>
+        <v>0.03098018178727452</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2192207160.360077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967853885.591257</v>
+        <v>1957551587.691926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08892950308035627</v>
+        <v>0.1002501953300129</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03852950524271277</v>
+        <v>0.05117805009225003</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>983926894.1168376</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3072082713.976258</v>
+        <v>2918389860.341998</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1011263385360944</v>
+        <v>0.08165902896500842</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03790258221210394</v>
+        <v>0.04110834114009061</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1536041346.204513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3076548508.230669</v>
+        <v>3878543685.756878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1831003433370025</v>
+        <v>0.1574928793252171</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0268876846211881</v>
+        <v>0.02837751627495117</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1538274312.712571</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1970394038.205193</v>
+        <v>1711714151.585225</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1583693001339536</v>
+        <v>0.1054234250281853</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03664711638794436</v>
+        <v>0.02316888973437332</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>985196985.8475606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4085603458.560915</v>
+        <v>3519768928.183469</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1078379826818939</v>
+        <v>0.1090963405039521</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02252737383113238</v>
+        <v>0.02149956867757311</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2042801717.431924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1964989432.130919</v>
+        <v>2056653727.309299</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1683542111922808</v>
+        <v>0.1168209740552689</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02106880162564754</v>
+        <v>0.02651235090254101</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>982494772.2576288</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3794760489.441339</v>
+        <v>3192502662.350761</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1152762426092346</v>
+        <v>0.1282485288816325</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05469791408539405</v>
+        <v>0.04261954747744931</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1897380224.972072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1277967304.99674</v>
+        <v>1499409841.439453</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1121261366417965</v>
+        <v>0.1148344068679358</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03788182528680081</v>
+        <v>0.03122957918880283</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>638983647.7004848</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3421104004.066936</v>
+        <v>5627493863.825432</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07378455716724459</v>
+        <v>0.07630487831522348</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0243490121673996</v>
+        <v>0.03752083375119776</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1710551972.564589</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4524972788.536353</v>
+        <v>4042419012.239872</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08472804381816552</v>
+        <v>0.1330048878433024</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02173765300040054</v>
+        <v>0.02978865643867082</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2262486376.823717</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4367109189.203294</v>
+        <v>5519058011.329787</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1488831177724758</v>
+        <v>0.1718259739932217</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02010437979551736</v>
+        <v>0.02304744981951514</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2183554613.715475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1707767595.226261</v>
+        <v>2158426002.224547</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1579012765271035</v>
+        <v>0.1176201208229595</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03991681253987345</v>
+        <v>0.03791954253206987</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>853883746.4198017</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1734327430.949748</v>
+        <v>2073925129.32517</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08501405719368141</v>
+        <v>0.0741683002627976</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05153689041787155</v>
+        <v>0.04205934559777371</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>867163759.203455</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2661102038.621398</v>
+        <v>2860690032.943163</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1195177308700808</v>
+        <v>0.1552510104041132</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04897372749506581</v>
+        <v>0.04730247990567315</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1330551041.872889</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2194946536.450578</v>
+        <v>2048863350.64061</v>
       </c>
       <c r="F86" t="n">
-        <v>0.159991277581279</v>
+        <v>0.1161945056213679</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02123910276298245</v>
+        <v>0.02242271898692804</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1097473322.797368</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1454843614.878439</v>
+        <v>1037896322.429926</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1207836608975328</v>
+        <v>0.1892055162309569</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02818767677422374</v>
+        <v>0.04347309683935986</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>727421928.1684999</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3135985871.198068</v>
+        <v>2283216926.413751</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1094876625687018</v>
+        <v>0.1654857452560872</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03250704589628253</v>
+        <v>0.02519046341889493</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1567992979.302183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2683512109.505236</v>
+        <v>2499347575.585336</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1024563525554744</v>
+        <v>0.1028386497194688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02836332215952907</v>
+        <v>0.0275690503188066</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1341756115.874524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2048827833.705939</v>
+        <v>1634329830.046297</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1304854939815993</v>
+        <v>0.1358484162462568</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05181407658132421</v>
+        <v>0.04107608851042036</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1024413995.870865</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1609697339.305048</v>
+        <v>1989992401.338296</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1197853625467942</v>
+        <v>0.1598484241329767</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04407195534629119</v>
+        <v>0.05369156110653937</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>804848693.7663991</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2182778804.759004</v>
+        <v>1879159779.353834</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07831809984670857</v>
+        <v>0.06795519342895515</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0476715668418889</v>
+        <v>0.03719325649776267</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1091389362.1696</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4919588601.404881</v>
+        <v>3313200182.786861</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1036939678524711</v>
+        <v>0.1162896708815359</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05318239655340032</v>
+        <v>0.04708190891700565</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2459794241.679287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1878423202.619991</v>
+        <v>1613420331.929409</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1340203615341896</v>
+        <v>0.1109895389147141</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03363566090151206</v>
+        <v>0.02813983678741563</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>939211583.6301843</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2013071732.99988</v>
+        <v>3267809461.305892</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1319017809719762</v>
+        <v>0.1239288711869218</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0518241982693311</v>
+        <v>0.03800025175865265</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1006535937.798496</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1934625725.771078</v>
+        <v>2208347775.752456</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1144602361027178</v>
+        <v>0.1092417799812871</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04288674336955648</v>
+        <v>0.03235995364413011</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>967312856.6698778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3346019299.963684</v>
+        <v>5325931263.293226</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1128153094196009</v>
+        <v>0.1108483200532788</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01828647685607459</v>
+        <v>0.02508189105862476</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1673009653.609521</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2554899653.827075</v>
+        <v>2573140935.143967</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08558214276383777</v>
+        <v>0.0835146718304966</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02269426629775117</v>
+        <v>0.02351032671114558</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1277449781.217335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2484026021.956734</v>
+        <v>3412561140.721272</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1308241481578652</v>
+        <v>0.103678232971462</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02815916896039133</v>
+        <v>0.02716554390319223</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1242012959.284426</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4162334849.844722</v>
+        <v>3303335230.736341</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1701392767154889</v>
+        <v>0.1141794373230096</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01900443258404468</v>
+        <v>0.02365142429919515</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2081167508.374917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2539382094.521185</v>
+        <v>2811715588.657169</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1944846097684244</v>
+        <v>0.1614751338330911</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04493158029837439</v>
+        <v>0.05147390863281037</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1269691075.252723</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_35.xlsx
+++ b/output/fit_clients/fit_round_35.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2501965554.65248</v>
+        <v>2071629821.175113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07257444227781881</v>
+        <v>0.07310010440529197</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03355656003415499</v>
+        <v>0.0296844470187609</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2193404896.420309</v>
+        <v>1608445749.122406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1741564460827169</v>
+        <v>0.1749071055250571</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03142526379216064</v>
+        <v>0.03350964404559835</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5053029451.218596</v>
+        <v>3407554956.143509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1142887433734846</v>
+        <v>0.1388191965901404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02955828647468875</v>
+        <v>0.03770834300179349</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4115381242.607564</v>
+        <v>3529971851.36971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08215173171419875</v>
+        <v>0.06753687165569035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04661992446393353</v>
+        <v>0.03691134656944121</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2737751064.002838</v>
+        <v>1922990269.784425</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0897894335905231</v>
+        <v>0.1292903871355703</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04922630514507195</v>
+        <v>0.04896426574728562</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2113098104.951689</v>
+        <v>2068393327.457178</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06417466331743861</v>
+        <v>0.07994443095036952</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04351578112184375</v>
+        <v>0.04970543815126415</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2487120510.502723</v>
+        <v>2539338380.04155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2094505882512914</v>
+        <v>0.1963708929711797</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03348553618115363</v>
+        <v>0.02627695530055677</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1695460911.282635</v>
+        <v>2074756464.516939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1727049679668065</v>
+        <v>0.1702659887810881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02395126314501449</v>
+        <v>0.03138869200547675</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4414748099.675088</v>
+        <v>5834515441.824011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1445481201888944</v>
+        <v>0.1415549465468692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03298925701026169</v>
+        <v>0.04653741689168678</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2687617568.619785</v>
+        <v>3856792777.996122</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1198890510335456</v>
+        <v>0.1702823103473325</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03334008171493171</v>
+        <v>0.03534314395934742</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3056011171.401</v>
+        <v>2820439541.53829</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1567478190127962</v>
+        <v>0.1683158949224707</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03551684686858108</v>
+        <v>0.03849570979769209</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4373186897.733974</v>
+        <v>3779900917.381971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07655101133494058</v>
+        <v>0.09031469863347934</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02831149120938322</v>
+        <v>0.02907131971503995</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3763053617.80605</v>
+        <v>3492438492.786623</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625211726330513</v>
+        <v>0.185943496343289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04262369100400699</v>
+        <v>0.02741159585422076</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1422624848.621006</v>
+        <v>1811166046.005203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0905797807399524</v>
+        <v>0.09867200710826762</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0376497665879446</v>
+        <v>0.04637052902854783</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2008376637.626223</v>
+        <v>1989418645.427514</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1134227077774499</v>
+        <v>0.08189781819805171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03415851940523574</v>
+        <v>0.03906091880638202</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4362002766.537613</v>
+        <v>3863859414.343758</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1122897280143633</v>
+        <v>0.1461494953986645</v>
       </c>
       <c r="G17" t="n">
-        <v>0.035100822219736</v>
+        <v>0.04140576003465482</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3778983590.927124</v>
+        <v>2799306973.263758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1425464686662401</v>
+        <v>0.1572777371318665</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02230510744305873</v>
+        <v>0.02080657015811717</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1363952209.029415</v>
+        <v>1052265377.214086</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1715677775046623</v>
+        <v>0.1208220438954738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02381018865364521</v>
+        <v>0.01659063001315509</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2431623706.481806</v>
+        <v>2630726429.250188</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1427547585827737</v>
+        <v>0.1510097982635378</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02327023246999717</v>
+        <v>0.02422472994589059</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2312713118.574028</v>
+        <v>1943652698.585797</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08575270297807096</v>
+        <v>0.07543454739150238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04384579375992876</v>
+        <v>0.03079735416436251</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2935438275.570202</v>
+        <v>3862297153.834467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1322836693191006</v>
+        <v>0.1215874454743143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04827326780817654</v>
+        <v>0.03609828617467578</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1506067488.437507</v>
+        <v>1051252905.331115</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1803448347814245</v>
+        <v>0.1446608864445321</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05263562960790363</v>
+        <v>0.04952699523010522</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3166742289.154762</v>
+        <v>3121546651.352113</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1156127717578312</v>
+        <v>0.1276841489630039</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03095842405091897</v>
+        <v>0.03697091302277963</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1393469202.749696</v>
+        <v>1078253910.518417</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09815902986699825</v>
+        <v>0.08264248588179059</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02926116634333811</v>
+        <v>0.02131714143392904</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1136297255.982335</v>
+        <v>1145877124.689165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07953960527073002</v>
+        <v>0.08438204966225177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02974038860295115</v>
+        <v>0.0342261179646332</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3470475115.507605</v>
+        <v>4343717758.460178</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1461926112444459</v>
+        <v>0.09681285051536594</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01687503308892676</v>
+        <v>0.01882404971730535</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3039332369.340283</v>
+        <v>3007604599.04024</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1315684838884462</v>
+        <v>0.1490352092977436</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04608418563466286</v>
+        <v>0.04576783188730188</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4850810976.655294</v>
+        <v>5062190658.181295</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09535304602983709</v>
+        <v>0.133856367989662</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03762154003352079</v>
+        <v>0.03377622432857682</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2069028781.875391</v>
+        <v>1863060418.566185</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122340825059821</v>
+        <v>0.1283631887937524</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03631737482076791</v>
+        <v>0.03197452104170227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1093512658.484034</v>
+        <v>1477816496.636915</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07285450245884598</v>
+        <v>0.09430457526569366</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0497967957515831</v>
+        <v>0.04447365036071161</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1603321727.600979</v>
+        <v>1846229899.292152</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07881440377288791</v>
+        <v>0.1036526110746959</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03223231647739004</v>
+        <v>0.02928345446062827</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2411654684.59271</v>
+        <v>2616370235.495775</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1847969029946241</v>
+        <v>0.14658135241521</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04860327819823414</v>
+        <v>0.05264669513059299</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1037867768.442598</v>
+        <v>1269109815.714365</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1029196579848682</v>
+        <v>0.1214393530823775</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01868157364456896</v>
+        <v>0.01777733131274882</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>961939074.021091</v>
+        <v>1164296183.524682</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1181542989409389</v>
+        <v>0.11161215056738</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04515004039646833</v>
+        <v>0.03371944715331282</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2243728276.338048</v>
+        <v>3136271809.46192</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1517989529242159</v>
+        <v>0.1339418567480431</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02159387863675434</v>
+        <v>0.01797910180078022</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1954576667.953201</v>
+        <v>1944158342.09305</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07445540980354422</v>
+        <v>0.0895657733590868</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02733282078901205</v>
+        <v>0.02734121586836806</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1590779024.856094</v>
+        <v>2179769333.942305</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09677384163360993</v>
+        <v>0.09862982996879026</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03714862283633957</v>
+        <v>0.0274475004669456</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1559126570.708797</v>
+        <v>1347403319.1108</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1687002678721503</v>
+        <v>0.135952469176868</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02111908753913569</v>
+        <v>0.02102412471617604</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1552707002.480814</v>
+        <v>1420515144.87169</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1338031752210317</v>
+        <v>0.1575378463517625</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05453592566719655</v>
+        <v>0.04865240525918727</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2470480424.300405</v>
+        <v>2652963928.962579</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1317251521333995</v>
+        <v>0.1329235544613709</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04714815281286697</v>
+        <v>0.03478008886819405</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3963927775.294077</v>
+        <v>2874109995.214483</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1176778394233972</v>
+        <v>0.09476868321644098</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03192966247853136</v>
+        <v>0.0401917764747271</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2821304466.439358</v>
+        <v>2648343673.311064</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1590596551403948</v>
+        <v>0.1925674626955368</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02026735713312072</v>
+        <v>0.01892757915408364</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2169869744.110737</v>
+        <v>2072669891.774885</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0652267616478107</v>
+        <v>0.09686573555829603</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03185944368249292</v>
+        <v>0.02502914223893992</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2145636386.20115</v>
+        <v>2304612879.119675</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1831043812104046</v>
+        <v>0.1840354581986135</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04591088579441754</v>
+        <v>0.04330501514324288</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4741636858.305813</v>
+        <v>3839901251.996391</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1150622625549051</v>
+        <v>0.1434208917281793</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03920736148873805</v>
+        <v>0.0558604709254261</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5039772320.793857</v>
+        <v>5142167139.55199</v>
       </c>
       <c r="F47" t="n">
-        <v>0.128504669203318</v>
+        <v>0.1422942038910114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04630606766909062</v>
+        <v>0.05014101532837043</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4476800172.995454</v>
+        <v>4591733279.138648</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08455015072116552</v>
+        <v>0.1056463972163069</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03921490410354208</v>
+        <v>0.03651626092627692</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1630284387.396842</v>
+        <v>1317069773.564361</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1262247731068022</v>
+        <v>0.1215736803205642</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03071383406361836</v>
+        <v>0.03571776142342264</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3192949461.45693</v>
+        <v>4054684478.465159</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1635367356089039</v>
+        <v>0.1692378914985484</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04829926135993066</v>
+        <v>0.04364019543163434</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>958577989.9538409</v>
+        <v>1377501925.204016</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1398179805264786</v>
+        <v>0.1800899369368053</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0365856498255048</v>
+        <v>0.04000870325119615</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4947967895.438267</v>
+        <v>3345649586.527938</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1011150759522487</v>
+        <v>0.1185568145777332</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06208376058223863</v>
+        <v>0.05369748495424683</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3503417019.456067</v>
+        <v>3179327638.54413</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1298699789671348</v>
+        <v>0.1493935104673084</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03189475102023137</v>
+        <v>0.03549579194451297</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3264459880.601957</v>
+        <v>3602555985.157843</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1452852879405315</v>
+        <v>0.1394900244311342</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03289003919435921</v>
+        <v>0.04875907622031181</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3946245197.409173</v>
+        <v>4270392305.122025</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1656853455637603</v>
+        <v>0.2147619677525137</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02834353287147194</v>
+        <v>0.02036504042215834</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1773663493.156872</v>
+        <v>1586017191.734282</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1570703771277463</v>
+        <v>0.1515747995135423</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05534541095749902</v>
+        <v>0.03965205047269857</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4106202666.35871</v>
+        <v>3821368758.52519</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1748806590313677</v>
+        <v>0.1262769171284097</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01712986435454263</v>
+        <v>0.01970132151605847</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1382095029.872675</v>
+        <v>1460595555.333285</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1856390551053261</v>
+        <v>0.1400735011507765</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03135390825747477</v>
+        <v>0.02566741962016062</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3995267204.341471</v>
+        <v>4258786586.551151</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09442612066018756</v>
+        <v>0.09367296594509468</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04471780857586555</v>
+        <v>0.04549559818316989</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2967666820.609742</v>
+        <v>3398117259.771082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1313042646963936</v>
+        <v>0.1410900928034499</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02053291633992741</v>
+        <v>0.0221669812229602</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2838643747.816402</v>
+        <v>2453487285.619543</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1776782314668454</v>
+        <v>0.1284242475003395</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02918997252444219</v>
+        <v>0.02788649313132069</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1924214602.321908</v>
+        <v>1669013884.463394</v>
       </c>
       <c r="F62" t="n">
-        <v>0.156159986424269</v>
+        <v>0.1313858981924522</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04262786235497636</v>
+        <v>0.04578096302119521</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3719055221.151275</v>
+        <v>5544543828.72515</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06685856000266056</v>
+        <v>0.1026080146164744</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04168295383265357</v>
+        <v>0.03548802413066196</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3948373972.679663</v>
+        <v>3535486029.027699</v>
       </c>
       <c r="F64" t="n">
-        <v>0.136035920290975</v>
+        <v>0.1695142986263149</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02151545893799958</v>
+        <v>0.03531127548969498</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5201606017.335862</v>
+        <v>5449233222.522746</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1306918657646282</v>
+        <v>0.1083958399082786</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02968969662962948</v>
+        <v>0.02117473463357723</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5103005525.910784</v>
+        <v>4008478158.312829</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1290941466983423</v>
+        <v>0.1221446088956879</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04455037550163776</v>
+        <v>0.04211732160809573</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2312780152.459053</v>
+        <v>3513957578.862672</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0810320534885649</v>
+        <v>0.09750590516799068</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03549549044760562</v>
+        <v>0.0383593270356396</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5226345394.052594</v>
+        <v>4001405918.849307</v>
       </c>
       <c r="F68" t="n">
-        <v>0.131047436692192</v>
+        <v>0.1029541695340988</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04548240425833549</v>
+        <v>0.03325935133139005</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2136653920.777722</v>
+        <v>1900985697.398087</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1571245276000494</v>
+        <v>0.1515832028996684</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05682444296190112</v>
+        <v>0.04591101426796301</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2448914415.765228</v>
+        <v>3300099061.042444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08358069288018173</v>
+        <v>0.1021491795693742</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03061929879971914</v>
+        <v>0.03143286139411858</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3399661565.889299</v>
+        <v>5613348341.091357</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1607964170033662</v>
+        <v>0.1166223255728842</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03098018178727452</v>
+        <v>0.02471910965270571</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1957551587.691926</v>
+        <v>1992860064.650086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1002501953300129</v>
+        <v>0.09780691928876138</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05117805009225003</v>
+        <v>0.04174187815597617</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2918389860.341998</v>
+        <v>2556982539.226846</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08165902896500842</v>
+        <v>0.09908048349182022</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04110834114009061</v>
+        <v>0.0393173299867847</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3878543685.756878</v>
+        <v>3199095383.647015</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1574928793252171</v>
+        <v>0.1612882222629415</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02837751627495117</v>
+        <v>0.03495742107005353</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1711714151.585225</v>
+        <v>2383772095.528342</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1054234250281853</v>
+        <v>0.1440989111536485</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02316888973437332</v>
+        <v>0.03446631847443733</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3519768928.183469</v>
+        <v>3381356123.89289</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1090963405039521</v>
+        <v>0.08263228321749805</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02149956867757311</v>
+        <v>0.023375237059757</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2056653727.309299</v>
+        <v>1593647322.444623</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1168209740552689</v>
+        <v>0.1860182469324276</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02651235090254101</v>
+        <v>0.02021196239620394</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3192502662.350761</v>
+        <v>4609897435.624508</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1282485288816325</v>
+        <v>0.1195469044167587</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04261954747744931</v>
+        <v>0.04309152600283127</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1499409841.439453</v>
+        <v>1505304746.213946</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1148344068679358</v>
+        <v>0.1589078929807805</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03122957918880283</v>
+        <v>0.02933629069998367</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5627493863.825432</v>
+        <v>4155683364.889786</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07630487831522348</v>
+        <v>0.09416499286475397</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03752083375119776</v>
+        <v>0.03765203217452876</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4042419012.239872</v>
+        <v>3357162181.144917</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1330048878433024</v>
+        <v>0.08470407963157922</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02978865643867082</v>
+        <v>0.02293586658455271</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5519058011.329787</v>
+        <v>5362047478.239321</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1718259739932217</v>
+        <v>0.141169411888846</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02304744981951514</v>
+        <v>0.02212651292676509</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2158426002.224547</v>
+        <v>1967898366.094206</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1176201208229595</v>
+        <v>0.1125706750800296</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03791954253206987</v>
+        <v>0.04245491452191299</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2073925129.32517</v>
+        <v>2048735305.487355</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0741683002627976</v>
+        <v>0.116870138345712</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04205934559777371</v>
+        <v>0.03204983464531265</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2860690032.943163</v>
+        <v>3285945723.036057</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1552510104041132</v>
+        <v>0.123455525887418</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04730247990567315</v>
+        <v>0.04338599588191937</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2048863350.64061</v>
+        <v>2244511835.687415</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1161945056213679</v>
+        <v>0.1702313526896909</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02242271898692804</v>
+        <v>0.02369766731184178</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1037896322.429926</v>
+        <v>1212231042.165956</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1892055162309569</v>
+        <v>0.1750752796851377</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04347309683935986</v>
+        <v>0.02767755000209068</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2283216926.413751</v>
+        <v>3354885449.68538</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1654857452560872</v>
+        <v>0.1184838295584661</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02519046341889493</v>
+        <v>0.0312179140064777</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2499347575.585336</v>
+        <v>2673423837.073277</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1028386497194688</v>
+        <v>0.1064160431916209</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0275690503188066</v>
+        <v>0.03433332964176614</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1634329830.046297</v>
+        <v>2152423571.48037</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1358484162462568</v>
+        <v>0.09513709350379024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04107608851042036</v>
+        <v>0.03674292373467004</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1989992401.338296</v>
+        <v>1585156224.526223</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1598484241329767</v>
+        <v>0.1873827622985505</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05369156110653937</v>
+        <v>0.05712969647642416</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1879159779.353834</v>
+        <v>2763252175.392159</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06795519342895515</v>
+        <v>0.09914972873712299</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03719325649776267</v>
+        <v>0.04305453783103164</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3313200182.786861</v>
+        <v>4463627182.559169</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1162896708815359</v>
+        <v>0.1119881207129901</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04708190891700565</v>
+        <v>0.04055030130602679</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1613420331.929409</v>
+        <v>2438816064.241684</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1109895389147141</v>
+        <v>0.1098397116081134</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02813983678741563</v>
+        <v>0.03499577673420264</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3267809461.305892</v>
+        <v>2112930994.061515</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1239288711869218</v>
+        <v>0.1045700161940291</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03800025175865265</v>
+        <v>0.05224085255675006</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2208347775.752456</v>
+        <v>1899969549.575846</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1092417799812871</v>
+        <v>0.1164931409548938</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03235995364413011</v>
+        <v>0.02954562141254979</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5325931263.293226</v>
+        <v>4269054920.714389</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1108483200532788</v>
+        <v>0.1259497091030571</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02508189105862476</v>
+        <v>0.02032900569476789</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2573140935.143967</v>
+        <v>2774247496.062648</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0835146718304966</v>
+        <v>0.1031130856719632</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02351032671114558</v>
+        <v>0.03131820817851525</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3412561140.721272</v>
+        <v>3012271320.551968</v>
       </c>
       <c r="F99" t="n">
-        <v>0.103678232971462</v>
+        <v>0.1389387479701767</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02716554390319223</v>
+        <v>0.03233847612824</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3303335230.736341</v>
+        <v>3218784726.247984</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1141794373230096</v>
+        <v>0.1300645361061579</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02365142429919515</v>
+        <v>0.02440506365296495</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2811715588.657169</v>
+        <v>3322208164.692571</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1614751338330911</v>
+        <v>0.153086464960155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05147390863281037</v>
+        <v>0.05189581723325734</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_35.xlsx
+++ b/output/fit_clients/fit_round_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2071629821.175113</v>
+        <v>2053856926.232612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07310010440529197</v>
+        <v>0.07364740659043427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0296844470187609</v>
+        <v>0.0346246606904043</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1608445749.122406</v>
+        <v>1853918950.92303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1749071055250571</v>
+        <v>0.1678292422134534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03350964404559835</v>
+        <v>0.0385572329600939</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3407554956.143509</v>
+        <v>4743893308.701915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1388191965901404</v>
+        <v>0.1199336511037352</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03770834300179349</v>
+        <v>0.03368592349247263</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3529971851.36971</v>
+        <v>2777649915.856323</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06753687165569035</v>
+        <v>0.08305011959970322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03691134656944121</v>
+        <v>0.04577329867180437</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1922990269.784425</v>
+        <v>2027414237.659929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1292903871355703</v>
+        <v>0.1445810612980109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04896426574728562</v>
+        <v>0.04299535197548305</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2068393327.457178</v>
+        <v>1967007038.793259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07994443095036952</v>
+        <v>0.07707040506110427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04970543815126415</v>
+        <v>0.0309430629073082</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2539338380.04155</v>
+        <v>3158387515.026429</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1963708929711797</v>
+        <v>0.2121828238735698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02627695530055677</v>
+        <v>0.02800748163879101</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2074756464.516939</v>
+        <v>2006693551.253699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1702659887810881</v>
+        <v>0.1472453245784432</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03138869200547675</v>
+        <v>0.03519960067178571</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5834515441.824011</v>
+        <v>3904552386.757882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415549465468692</v>
+        <v>0.1729386918630978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04653741689168678</v>
+        <v>0.05200995070134799</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>34</v>
+      </c>
+      <c r="K10" t="n">
+        <v>214.4218680842162</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3856792777.996122</v>
+        <v>4100693646.407071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1702823103473325</v>
+        <v>0.151782614491447</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03534314395934742</v>
+        <v>0.03214022007631673</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2820439541.53829</v>
+        <v>2732557522.279469</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1683158949224707</v>
+        <v>0.1878232028430673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03849570979769209</v>
+        <v>0.03487749483429484</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3779900917.381971</v>
+        <v>4071853172.882868</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09031469863347934</v>
+        <v>0.07655188975105899</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02907131971503995</v>
+        <v>0.02580168157160067</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3492438492.786623</v>
+        <v>3842477079.012294</v>
       </c>
       <c r="F14" t="n">
-        <v>0.185943496343289</v>
+        <v>0.1744881615614889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02741159585422076</v>
+        <v>0.03795340606390504</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>34</v>
+      </c>
+      <c r="K14" t="n">
+        <v>182.1850047411825</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1811166046.005203</v>
+        <v>1588937961.654189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09867200710826762</v>
+        <v>0.07953086573480977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04637052902854783</v>
+        <v>0.03625941235937672</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1989418645.427514</v>
+        <v>2214862773.763275</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08189781819805171</v>
+        <v>0.1144065081673805</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03906091880638202</v>
+        <v>0.04652445219461651</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3863859414.343758</v>
+        <v>4798578961.689957</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1461494953986645</v>
+        <v>0.1533591311735285</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04140576003465482</v>
+        <v>0.05064224562978396</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>34</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.2999593764943</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2799306973.263758</v>
+        <v>2478499731.592503</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1572777371318665</v>
+        <v>0.1652642480749439</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02080657015811717</v>
+        <v>0.02823668342099933</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1052265377.214086</v>
+        <v>1107654443.045807</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1208220438954738</v>
+        <v>0.144900677510171</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01659063001315509</v>
+        <v>0.02620046283584397</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2630726429.250188</v>
+        <v>2243564845.611311</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1510097982635378</v>
+        <v>0.1570531384031732</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02422472994589059</v>
+        <v>0.02201218535477179</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1943652698.585797</v>
+        <v>1966415241.360489</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07543454739150238</v>
+        <v>0.09982764276371364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03079735416436251</v>
+        <v>0.02890264553753766</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3862297153.834467</v>
+        <v>3741648097.623143</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1215874454743143</v>
+        <v>0.1448845969619552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03609828617467578</v>
+        <v>0.05156613578998843</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="n">
+        <v>154.7196491150332</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1051252905.331115</v>
+        <v>1298684080.612593</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1446608864445321</v>
+        <v>0.1707590052527577</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04952699523010522</v>
+        <v>0.05412036611826977</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3121546651.352113</v>
+        <v>2670352164.2235</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1276841489630039</v>
+        <v>0.1364536629831905</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03697091302277963</v>
+        <v>0.03303318589882601</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1078253910.518417</v>
+        <v>1256083450.881852</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08264248588179059</v>
+        <v>0.09352061704964101</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02131714143392904</v>
+        <v>0.0306939009664901</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1145877124.689165</v>
+        <v>1295958346.382405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08438204966225177</v>
+        <v>0.0939654263773317</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0342261179646332</v>
+        <v>0.03685975868739777</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4343717758.460178</v>
+        <v>3994514697.519587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09681285051536594</v>
+        <v>0.1399873280959602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01882404971730535</v>
+        <v>0.02012189614841974</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>34</v>
+      </c>
+      <c r="K27" t="n">
+        <v>161.1416989052718</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3007604599.04024</v>
+        <v>2755697656.140244</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1490352092977436</v>
+        <v>0.1246700028613818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04576783188730188</v>
+        <v>0.03083916061787488</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>33</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5062190658.181295</v>
+        <v>3898272318.721978</v>
       </c>
       <c r="F29" t="n">
-        <v>0.133856367989662</v>
+        <v>0.1104881231579178</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03377622432857682</v>
+        <v>0.03681699906592475</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>216.6119674554624</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1863060418.566185</v>
+        <v>2263846588.170239</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1283631887937524</v>
+        <v>0.1384196357781083</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03197452104170227</v>
+        <v>0.03355201266504988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1477816496.636915</v>
+        <v>1085774184.993039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09430457526569366</v>
+        <v>0.11006394655612</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04447365036071161</v>
+        <v>0.03498168423397809</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1846229899.292152</v>
+        <v>1878660893.839028</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1036526110746959</v>
+        <v>0.09105226357152774</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02928345446062827</v>
+        <v>0.03774051050793983</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2616370235.495775</v>
+        <v>2608851363.34437</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14658135241521</v>
+        <v>0.1350914646210907</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05264669513059299</v>
+        <v>0.03839838602441378</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1269109815.714365</v>
+        <v>1341710980.677949</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214393530823775</v>
+        <v>0.1058159503047827</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01777733131274882</v>
+        <v>0.01708608592040257</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1164296183.524682</v>
+        <v>1081209685.93909</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11161215056738</v>
+        <v>0.09649035268089005</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03371944715331282</v>
+        <v>0.03037358682521386</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3136271809.46192</v>
+        <v>2189006290.319437</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1339418567480431</v>
+        <v>0.1771510725563752</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01797910180078022</v>
+        <v>0.02539497370397269</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1944158342.09305</v>
+        <v>2550806429.778343</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0895657733590868</v>
+        <v>0.108302187019163</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02734121586836806</v>
+        <v>0.04101235593027371</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2179769333.942305</v>
+        <v>2176460666.570103</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09862982996879026</v>
+        <v>0.09824432931575201</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0274475004669456</v>
+        <v>0.0341004298379332</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1347403319.1108</v>
+        <v>2052217293.347332</v>
       </c>
       <c r="F39" t="n">
-        <v>0.135952469176868</v>
+        <v>0.1190897025357306</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02102412471617604</v>
+        <v>0.02103191748584739</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1420515144.87169</v>
+        <v>1385809176.993613</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1575378463517625</v>
+        <v>0.1248294055430345</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04865240525918727</v>
+        <v>0.03717309041801183</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2652963928.962579</v>
+        <v>2832615699.394712</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1329235544613709</v>
+        <v>0.1258047312534301</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03478008886819405</v>
+        <v>0.04511721309636516</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2874109995.214483</v>
+        <v>2813958518.785361</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09476868321644098</v>
+        <v>0.1192264641869369</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0401917764747271</v>
+        <v>0.02969777634316609</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>34</v>
+      </c>
+      <c r="K42" t="n">
+        <v>97.92096506202691</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2648343673.311064</v>
+        <v>2201075503.177826</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1925674626955368</v>
+        <v>0.1536907910698161</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01892757915408364</v>
+        <v>0.02141231126063492</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2072669891.774885</v>
+        <v>2203298851.399621</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09686573555829603</v>
+        <v>0.09758667665336446</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02502914223893992</v>
+        <v>0.02663264763369575</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2304612879.119675</v>
+        <v>1911869010.733156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1840354581986135</v>
+        <v>0.1210890749652467</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04330501514324288</v>
+        <v>0.05245714146119877</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3839901251.996391</v>
+        <v>5459039329.124796</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1434208917281793</v>
+        <v>0.108804727128429</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0558604709254261</v>
+        <v>0.0579343506549845</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21</v>
+      </c>
+      <c r="J46" t="n">
+        <v>35</v>
+      </c>
+      <c r="K46" t="n">
+        <v>214.424776795166</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5142167139.55199</v>
+        <v>4392271077.714126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1422942038910114</v>
+        <v>0.1388696452536963</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05014101532837043</v>
+        <v>0.05373566612631731</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>34</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.0600402459412</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4591733279.138648</v>
+        <v>4206288924.815217</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1056463972163069</v>
+        <v>0.1062017965659079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03651626092627692</v>
+        <v>0.02800061787586286</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>35</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1317069773.564361</v>
+        <v>1208501394.662866</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1215736803205642</v>
+        <v>0.142468621027264</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03571776142342264</v>
+        <v>0.02717694566423815</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4054684478.465159</v>
+        <v>3274273630.106718</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1692378914985484</v>
+        <v>0.1783012397787301</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04364019543163434</v>
+        <v>0.05161779956134287</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>34</v>
+      </c>
+      <c r="K50" t="n">
+        <v>134.4657943349659</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1377501925.204016</v>
+        <v>1178423062.50507</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1800899369368053</v>
+        <v>0.1367893851080057</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04000870325119615</v>
+        <v>0.03412620671611634</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3345649586.527938</v>
+        <v>4535243870.339939</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1185568145777332</v>
+        <v>0.1282173239117183</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05369748495424683</v>
+        <v>0.05890911946628058</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>35</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229.9837840813695</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3179327638.54413</v>
+        <v>3194555320.024987</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1493935104673084</v>
+        <v>0.2006846559988663</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03549579194451297</v>
+        <v>0.03191699475906292</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2343,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3602555985.157843</v>
+        <v>3077078736.34654</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1394900244311342</v>
+        <v>0.1466809481498658</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04875907622031181</v>
+        <v>0.04400328318519302</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>33</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4270392305.122025</v>
+        <v>3430332991.845434</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2147619677525137</v>
+        <v>0.2125266550162918</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02036504042215834</v>
+        <v>0.02254574322181297</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>35</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1586017191.734282</v>
+        <v>1221416511.346624</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1515747995135423</v>
+        <v>0.1612600384712703</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03965205047269857</v>
+        <v>0.0466539907562848</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3821368758.52519</v>
+        <v>4462907712.226659</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1262769171284097</v>
+        <v>0.1238435727591849</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01970132151605847</v>
+        <v>0.02684400106722164</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" t="n">
+        <v>35</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1460595555.333285</v>
+        <v>1478611575.62054</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1400735011507765</v>
+        <v>0.1804695662283121</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02566741962016062</v>
+        <v>0.03637567440949612</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4258786586.551151</v>
+        <v>4158765289.828467</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09367296594509468</v>
+        <v>0.1229644848226934</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04549559818316989</v>
+        <v>0.04090053582537331</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>35</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3398117259.771082</v>
+        <v>2587198405.69582</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1410900928034499</v>
+        <v>0.1743942644620388</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0221669812229602</v>
+        <v>0.02103439700705068</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2453487285.619543</v>
+        <v>3127207005.00178</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1284242475003395</v>
+        <v>0.1648245635358005</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02788649313132069</v>
+        <v>0.02560634354359955</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1669013884.463394</v>
+        <v>1350299699.520147</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1313858981924522</v>
+        <v>0.122103160303118</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04578096302119521</v>
+        <v>0.04286093129813821</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5544543828.72515</v>
+        <v>4173157828.453324</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026080146164744</v>
+        <v>0.08871008816083668</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03548802413066196</v>
+        <v>0.03529994385871741</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>34</v>
+      </c>
+      <c r="K63" t="n">
+        <v>195.7938021766201</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3535486029.027699</v>
+        <v>5374932724.272502</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695142986263149</v>
+        <v>0.1676975481312636</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03531127548969498</v>
+        <v>0.02365130717478346</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>35</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5449233222.522746</v>
+        <v>4530360909.460936</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1083958399082786</v>
+        <v>0.1627435753416124</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02117473463357723</v>
+        <v>0.02356415756216393</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>35</v>
+      </c>
+      <c r="K65" t="n">
+        <v>214.9470539575492</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4008478158.312829</v>
+        <v>4026778478.641912</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1221446088956879</v>
+        <v>0.1370693872057385</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04211732160809573</v>
+        <v>0.03656622085899272</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>17</v>
+      </c>
+      <c r="J66" t="n">
+        <v>35</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3513957578.862672</v>
+        <v>3284572681.416214</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09750590516799068</v>
+        <v>0.09972963714510523</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0383593270356396</v>
+        <v>0.04609808946102226</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4001405918.849307</v>
+        <v>4033882792.373101</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1029541695340988</v>
+        <v>0.1558263389510349</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03325935133139005</v>
+        <v>0.04270234054008172</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>17</v>
+      </c>
+      <c r="J68" t="n">
+        <v>35</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1900985697.398087</v>
+        <v>1929987598.37079</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1515832028996684</v>
+        <v>0.1227372343666267</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04591101426796301</v>
+        <v>0.04193394003993688</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3300099061.042444</v>
+        <v>3456133129.935602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021491795693742</v>
+        <v>0.07420520647264581</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03143286139411858</v>
+        <v>0.03400966122230914</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5613348341.091357</v>
+        <v>5417893959.65844</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1166223255728842</v>
+        <v>0.1596128857125511</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02471910965270571</v>
+        <v>0.03163597265392146</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29</v>
+      </c>
+      <c r="J71" t="n">
+        <v>35</v>
+      </c>
+      <c r="K71" t="n">
+        <v>215.9979166976105</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1992860064.650086</v>
+        <v>1533673341.50232</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09780691928876138</v>
+        <v>0.1082232061885271</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04174187815597617</v>
+        <v>0.04387798261922417</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2556982539.226846</v>
+        <v>2631339577.788181</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09908048349182022</v>
+        <v>0.1070028280432299</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0393173299867847</v>
+        <v>0.0500369956326741</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3199095383.647015</v>
+        <v>2965896698.84464</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1612882222629415</v>
+        <v>0.1317459750390458</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03495742107005353</v>
+        <v>0.03422861808036656</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>33</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2383772095.528342</v>
+        <v>1534066129.973533</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1440989111536485</v>
+        <v>0.1140991367622662</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03446631847443733</v>
+        <v>0.02450671707341249</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3381356123.89289</v>
+        <v>5224810037.484253</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08263228321749805</v>
+        <v>0.1168202252568632</v>
       </c>
       <c r="G76" t="n">
-        <v>0.023375237059757</v>
+        <v>0.03197243036165935</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>35</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1593647322.444623</v>
+        <v>1689643416.570803</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1860182469324276</v>
+        <v>0.1582881347820979</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02021196239620394</v>
+        <v>0.03180242551421975</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4609897435.624508</v>
+        <v>4274180747.454536</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1195469044167587</v>
+        <v>0.1010084622653429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04309152600283127</v>
+        <v>0.04294422787188041</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="n">
+        <v>35</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1505304746.213946</v>
+        <v>1358769238.412616</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1589078929807805</v>
+        <v>0.1707868001524474</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02933629069998367</v>
+        <v>0.03838836498080467</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4155683364.889786</v>
+        <v>5551975344.224274</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09416499286475397</v>
+        <v>0.09210186665648698</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03765203217452876</v>
+        <v>0.03486316872412924</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>34</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.2447216780666</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3357162181.144917</v>
+        <v>3283459367.412025</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08470407963157922</v>
+        <v>0.09542042179651189</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02293586658455271</v>
+        <v>0.02960885622379406</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>34</v>
+      </c>
+      <c r="K81" t="n">
+        <v>108.4938761079328</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5362047478.239321</v>
+        <v>5545786637.586976</v>
       </c>
       <c r="F82" t="n">
-        <v>0.141169411888846</v>
+        <v>0.1504592901391321</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02212651292676509</v>
+        <v>0.02816438026036284</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>19</v>
+      </c>
+      <c r="J82" t="n">
+        <v>34</v>
+      </c>
+      <c r="K82" t="n">
+        <v>213.8691611137904</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1967898366.094206</v>
+        <v>2290589069.968813</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1125706750800296</v>
+        <v>0.1352935063895838</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04245491452191299</v>
+        <v>0.04505896001558507</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2048735305.487355</v>
+        <v>2502471549.406057</v>
       </c>
       <c r="F84" t="n">
-        <v>0.116870138345712</v>
+        <v>0.09504650782385876</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03204983464531265</v>
+        <v>0.03374292722547258</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3285945723.036057</v>
+        <v>3034226555.777614</v>
       </c>
       <c r="F85" t="n">
-        <v>0.123455525887418</v>
+        <v>0.1793795532857922</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04338599588191937</v>
+        <v>0.05269230117339804</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2244511835.687415</v>
+        <v>1706031408.533945</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1702313526896909</v>
+        <v>0.1658591992353968</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02369766731184178</v>
+        <v>0.01830372461923869</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1212231042.165956</v>
+        <v>959608154.6100769</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1750752796851377</v>
+        <v>0.1393930637787529</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02767755000209068</v>
+        <v>0.03345476077725013</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3354885449.68538</v>
+        <v>2357649894.852841</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1184838295584661</v>
+        <v>0.1299316641947066</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0312179140064777</v>
+        <v>0.03721483178052545</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2673423837.073277</v>
+        <v>2894019069.442937</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1064160431916209</v>
+        <v>0.1422454152444468</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03433332964176614</v>
+        <v>0.0402165146131846</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2152423571.48037</v>
+        <v>1516511950.202924</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09513709350379024</v>
+        <v>0.1143268438610201</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03674292373467004</v>
+        <v>0.04107231644581009</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1585156224.526223</v>
+        <v>1953537376.533584</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1873827622985505</v>
+        <v>0.1264390746934484</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05712969647642416</v>
+        <v>0.03905479446712199</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2763252175.392159</v>
+        <v>2609910917.985921</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09914972873712299</v>
+        <v>0.08747223255883614</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04305453783103164</v>
+        <v>0.03757215697761698</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3720,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4463627182.559169</v>
+        <v>3375478820.059317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1119881207129901</v>
+        <v>0.1137229936864408</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04055030130602679</v>
+        <v>0.05465512229532437</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>15</v>
+      </c>
+      <c r="J93" t="n">
+        <v>35</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2438816064.241684</v>
+        <v>1651931906.975374</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1098397116081134</v>
+        <v>0.1612441057830887</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03499577673420264</v>
+        <v>0.03429281811046853</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2112930994.061515</v>
+        <v>2724540853.840775</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1045700161940291</v>
+        <v>0.1279135696362792</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05224085255675006</v>
+        <v>0.0417059369564969</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1899969549.575846</v>
+        <v>2315695162.506743</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1164931409548938</v>
+        <v>0.1246878802212031</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02954562141254979</v>
+        <v>0.03816481893003665</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3860,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4269054920.714389</v>
+        <v>4914437015.245791</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1259497091030571</v>
+        <v>0.146812016453385</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02032900569476789</v>
+        <v>0.02126558605946308</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>34</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.2573236154066</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2774247496.062648</v>
+        <v>3169478906.115004</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1031130856719632</v>
+        <v>0.1153933208581908</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03131820817851525</v>
+        <v>0.0237909884596695</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34</v>
+      </c>
+      <c r="K98" t="n">
+        <v>110.034354773442</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3012271320.551968</v>
+        <v>2651560869.370406</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1389387479701767</v>
+        <v>0.111320586134577</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03233847612824</v>
+        <v>0.02651297886924352</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3218784726.247984</v>
+        <v>4117844943.115231</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1300645361061579</v>
+        <v>0.1608650331827382</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02440506365296495</v>
+        <v>0.02329290022897218</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16</v>
+      </c>
+      <c r="J100" t="n">
+        <v>34</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.3231909219797</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3322208164.692571</v>
+        <v>3500646541.640915</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153086464960155</v>
+        <v>0.2134523577027639</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05189581723325734</v>
+        <v>0.04748411361949278</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
